--- a/chiatrang.xlsx
+++ b/chiatrang.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Readex\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Sync\Documents\Nien_luan_nganh\online-class\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8127FE8D-C7E4-4232-93E1-47AB9ED8C173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2AA119E-B106-4F38-B5E5-8441914B8A1B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2952" yWindow="1908" windowWidth="19500" windowHeight="9420" xr2:uid="{475A1337-DAEA-453D-A971-BD09E7FC8EFC}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{475A1337-DAEA-453D-A971-BD09E7FC8EFC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="40">
   <si>
     <t>Liên</t>
   </si>
@@ -78,9 +78,6 @@
     <t>Tân</t>
   </si>
   <si>
-    <t>admin</t>
-  </si>
-  <si>
     <t>Quy ước</t>
   </si>
   <si>
@@ -139,6 +136,24 @@
   </si>
   <si>
     <t>NOTI</t>
+  </si>
+  <si>
+    <t>6 tk bi chan nhan tin</t>
+  </si>
+  <si>
+    <t>7 tk bi chan ket ban</t>
+  </si>
+  <si>
+    <t>trang chính admin</t>
+  </si>
+  <si>
+    <t>trang tai khoan</t>
+  </si>
+  <si>
+    <t>1 trang login</t>
+  </si>
+  <si>
+    <t>1 trang registry</t>
   </si>
 </sst>
 </file>
@@ -498,17 +513,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3B87FBF0-A99E-45AC-8A7E-404D638B4793}">
-  <dimension ref="A1:K7"/>
+  <dimension ref="A1:K8"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" zoomScale="145" zoomScaleNormal="145" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="10.199999999999999" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="18.88671875" style="1" customWidth="1"/>
-    <col min="2" max="2" width="24.6640625" style="1" customWidth="1"/>
-    <col min="3" max="3" width="19.21875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="34.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="34.88671875" style="1" customWidth="1"/>
     <col min="4" max="5" width="8.88671875" style="1"/>
     <col min="6" max="6" width="18.6640625" style="1" customWidth="1"/>
     <col min="7" max="7" width="11" style="1" customWidth="1"/>
@@ -528,25 +543,25 @@
         <v>13</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>16</v>
-      </c>
       <c r="G1" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="H1" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="J1" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="K1" s="1" t="s">
         <v>33</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.2">
@@ -557,25 +572,25 @@
         <v>3</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>14</v>
+        <v>36</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I2" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="J2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="K2" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.2">
@@ -583,25 +598,28 @@
         <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>37</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.2">
@@ -609,13 +627,16 @@
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>9</v>
+        <v>10</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>8</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.2">
@@ -623,13 +644,16 @@
         <v>6</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>38</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.2">
@@ -637,15 +661,23 @@
         <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.2">
-      <c r="B7" s="1" t="s">
-        <v>12</v>
+      <c r="F7" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
+      <c r="F8" s="1" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>

--- a/chiatrang.xlsx
+++ b/chiatrang.xlsx
@@ -257,7 +257,7 @@
   <dimension ref="A1:K10"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="J15" activeCellId="0" sqref="J15"/>
+      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/chiatrang.xlsx
+++ b/chiatrang.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
   <si>
     <t xml:space="preserve">Liên</t>
   </si>
@@ -136,10 +136,7 @@
     <t xml:space="preserve">4 tk giang vien bi khoa</t>
   </si>
   <si>
-    <t xml:space="preserve">6 tk bi chan nhan tin</t>
-  </si>
-  <si>
-    <t xml:space="preserve">7 tk bi chan ket ban</t>
+    <t xml:space="preserve">50 tk admin con</t>
   </si>
   <si>
     <t xml:space="preserve">8 tk sv dang ki chua xac thuc</t>
@@ -256,11 +253,11 @@
   </sheetPr>
   <dimension ref="A1:K10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="160" zoomScaleNormal="160" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="H13" activeCellId="0" sqref="H13"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.88671875" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="18.89"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="34.44"/>
@@ -416,19 +413,14 @@
         <v>38</v>
       </c>
     </row>
-    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="F8" s="1" t="s">
-        <v>39</v>
-      </c>
-    </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F10" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
   </sheetData>

--- a/chiatrang.xlsx
+++ b/chiatrang.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="45">
   <si>
     <t xml:space="preserve">Liên</t>
   </si>
@@ -52,6 +52,9 @@
     <t xml:space="preserve">NOTI</t>
   </si>
   <si>
+    <t xml:space="preserve">GENDLE</t>
+  </si>
+  <si>
     <t xml:space="preserve">Trang chính sinh viên</t>
   </si>
   <si>
@@ -73,6 +76,9 @@
     <t xml:space="preserve">1 ban be</t>
   </si>
   <si>
+    <t xml:space="preserve">1 nam</t>
+  </si>
+  <si>
     <t xml:space="preserve">Popup navigation</t>
   </si>
   <si>
@@ -94,6 +100,9 @@
     <t xml:space="preserve">2 goi loi moi</t>
   </si>
   <si>
+    <t xml:space="preserve">2nu</t>
+  </si>
+  <si>
     <t xml:space="preserve">Lịch học sinh viên</t>
   </si>
   <si>
@@ -107,6 +116,9 @@
   </si>
   <si>
     <t xml:space="preserve">3 chan</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0 khac</t>
   </si>
   <si>
     <t xml:space="preserve">Môn học sinh viên</t>
@@ -251,10 +263,10 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:K10"/>
+  <dimension ref="A1:L10"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="220" zoomScaleNormal="220" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="F7" activeCellId="0" sqref="F7"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="D1" colorId="64" zoomScale="140" zoomScaleNormal="140" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="M5" activeCellId="0" sqref="M5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.87890625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -301,126 +313,138 @@
       <c r="K1" s="1" t="s">
         <v>9</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>10</v>
+      </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G2" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="J2" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="J2" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="K2" s="1" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>18</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="G3" s="1" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="K3" s="1" t="s">
-        <v>22</v>
+        <v>24</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>26</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="F4" s="1" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>28</v>
+        <v>31</v>
+      </c>
+      <c r="L4" s="1" t="s">
+        <v>32</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A5" s="1" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="I5" s="1" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="1" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F7" s="1" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F9" s="1" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="F10" s="1" t="s">
-        <v>40</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
